--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H2">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I2">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J2">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N2">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O2">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P2">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q2">
-        <v>2.07797726311075</v>
+        <v>0.4023429060329999</v>
       </c>
       <c r="R2">
-        <v>8.311909052442999</v>
+        <v>1.609371624132</v>
       </c>
       <c r="S2">
-        <v>8.445788022330522E-05</v>
+        <v>5.498881050221186E-06</v>
       </c>
       <c r="T2">
-        <v>4.171985681167889E-05</v>
+        <v>2.765836775503689E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H3">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I3">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J3">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N3">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O3">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P3">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q3">
-        <v>0.9262303416761666</v>
+        <v>1.649171426487833</v>
       </c>
       <c r="R3">
-        <v>5.557382050057</v>
+        <v>9.895028558926999</v>
       </c>
       <c r="S3">
-        <v>3.764596112056085E-05</v>
+        <v>2.253947408963733E-05</v>
       </c>
       <c r="T3">
-        <v>2.789409531713141E-05</v>
+        <v>1.700541594779283E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H4">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I4">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J4">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N4">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O4">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P4">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q4">
-        <v>310.8517828256907</v>
+        <v>791.1968868126369</v>
       </c>
       <c r="R4">
-        <v>1865.110696954144</v>
+        <v>4747.181320875821</v>
       </c>
       <c r="S4">
-        <v>0.01263434547969538</v>
+        <v>0.01081340692889255</v>
       </c>
       <c r="T4">
-        <v>0.009361525820832618</v>
+        <v>0.008158419398219496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H5">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I5">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J5">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N5">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O5">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P5">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q5">
-        <v>2.58098928474575</v>
+        <v>2.56123184392875</v>
       </c>
       <c r="R5">
-        <v>10.323957138983</v>
+        <v>10.244927375715</v>
       </c>
       <c r="S5">
-        <v>0.0001049024393762449</v>
+        <v>3.500474108184652E-05</v>
       </c>
       <c r="T5">
-        <v>5.181890355762341E-05</v>
+        <v>1.760674568460824E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H6">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I6">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J6">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N6">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O6">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P6">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q6">
-        <v>2.600115561444833</v>
+        <v>2793.9605008305</v>
       </c>
       <c r="R6">
-        <v>15.600693368669</v>
+        <v>16763.763004983</v>
       </c>
       <c r="S6">
-        <v>0.0001056798130343911</v>
+        <v>0.03818547866188354</v>
       </c>
       <c r="T6">
-        <v>7.83043569650803E-05</v>
+        <v>0.02880989792523352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H7">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I7">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J7">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N7">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O7">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P7">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q7">
-        <v>536.3287088033607</v>
+        <v>299.7593821962616</v>
       </c>
       <c r="R7">
-        <v>3217.972252820164</v>
+        <v>1798.55629317757</v>
       </c>
       <c r="S7">
-        <v>0.02179869176269229</v>
+        <v>0.004096856590904668</v>
       </c>
       <c r="T7">
-        <v>0.01615192620185778</v>
+        <v>0.003090966103722051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J8">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N8">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O8">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P8">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q8">
-        <v>18.80843948590417</v>
+        <v>2.04532121595</v>
       </c>
       <c r="R8">
-        <v>112.850636915425</v>
+        <v>12.2719272957</v>
       </c>
       <c r="S8">
-        <v>0.0007644553949111786</v>
+        <v>2.795371288360764E-05</v>
       </c>
       <c r="T8">
-        <v>0.0005664297315469912</v>
+        <v>2.109031084667035E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J9">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N9">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O9">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P9">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q9">
-        <v>8.383608252452778</v>
+        <v>8.383608252452779</v>
       </c>
       <c r="R9">
-        <v>75.45247427207499</v>
+        <v>75.45247427207501</v>
       </c>
       <c r="S9">
-        <v>0.0003407456829266722</v>
+        <v>0.000114580035737251</v>
       </c>
       <c r="T9">
-        <v>0.0003787176210491195</v>
+        <v>0.0001296712487129911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J10">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N10">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O10">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P10">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q10">
-        <v>2813.619306695378</v>
+        <v>4022.071109807883</v>
       </c>
       <c r="R10">
-        <v>25322.5737602584</v>
+        <v>36198.63998827095</v>
       </c>
       <c r="S10">
-        <v>0.1143575180621176</v>
+        <v>0.05497025118805164</v>
       </c>
       <c r="T10">
-        <v>0.1271012645489245</v>
+        <v>0.06221032370741392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J11">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N11">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O11">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P11">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q11">
-        <v>23.36136282032083</v>
+        <v>13.0200924405625</v>
       </c>
       <c r="R11">
-        <v>140.168176921925</v>
+        <v>78.120554643375</v>
       </c>
       <c r="S11">
-        <v>0.0009495056649359857</v>
+        <v>0.0001779475629369367</v>
       </c>
       <c r="T11">
-        <v>0.0007035443041834085</v>
+        <v>0.0001342565630681644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I12">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J12">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N12">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O12">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P12">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q12">
-        <v>23.53448089253056</v>
+        <v>14203.17496142508</v>
       </c>
       <c r="R12">
-        <v>211.810328032775</v>
+        <v>127828.5746528257</v>
       </c>
       <c r="S12">
-        <v>0.0009565419235451345</v>
+        <v>0.1941169298060162</v>
       </c>
       <c r="T12">
-        <v>0.00106313681983381</v>
+        <v>0.2196838613491087</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I13">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J13">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N13">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O13">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P13">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q13">
-        <v>4854.483368590878</v>
+        <v>1523.835054359806</v>
       </c>
       <c r="R13">
-        <v>43690.35031731791</v>
+        <v>13714.51548923825</v>
       </c>
       <c r="S13">
-        <v>0.197306959113067</v>
+        <v>0.02082648302837141</v>
       </c>
       <c r="T13">
-        <v>0.219294406109371</v>
+        <v>0.02356951665455669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H14">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I14">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J14">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N14">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O14">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P14">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q14">
-        <v>12.261437533564</v>
+        <v>1.018695862446</v>
       </c>
       <c r="R14">
-        <v>73.56862520138399</v>
+        <v>6.112175174675999</v>
       </c>
       <c r="S14">
-        <v>0.0004983572443064282</v>
+        <v>1.392266966795629E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003692620419531304</v>
+        <v>1.050427298639447E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H15">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I15">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J15">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N15">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O15">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P15">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q15">
-        <v>5.465370424290667</v>
+        <v>4.175552951067889</v>
       </c>
       <c r="R15">
-        <v>49.18833381861599</v>
+        <v>37.579976559611</v>
       </c>
       <c r="S15">
-        <v>0.0002221360208627722</v>
+        <v>5.706791061189763E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002468903630646161</v>
+        <v>6.45842635924427E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H16">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I16">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J16">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N16">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O16">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P16">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q16">
-        <v>1834.230713192875</v>
+        <v>2003.23898567776</v>
       </c>
       <c r="R16">
-        <v>16508.07641873588</v>
+        <v>18029.15087109984</v>
       </c>
       <c r="S16">
-        <v>0.07455097831284356</v>
+        <v>0.02737856870901125</v>
       </c>
       <c r="T16">
-        <v>0.08285877288605432</v>
+        <v>0.0309845704762484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H17">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I17">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J17">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N17">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O17">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P17">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q17">
-        <v>15.229540501484</v>
+        <v>6.484807469082499</v>
       </c>
       <c r="R17">
-        <v>91.37724300890399</v>
+        <v>38.908844814495</v>
       </c>
       <c r="S17">
-        <v>0.000618993638845103</v>
+        <v>8.862883965734896E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004586486052872513</v>
+        <v>6.686803238396709E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H18">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I18">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J18">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N18">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O18">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P18">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q18">
-        <v>15.34239815934133</v>
+        <v>7074.055387471253</v>
       </c>
       <c r="R18">
-        <v>138.081583434072</v>
+        <v>63666.49848724128</v>
       </c>
       <c r="S18">
-        <v>0.0006235806565756668</v>
+        <v>0.09668217964104048</v>
       </c>
       <c r="T18">
-        <v>0.0006930710926759001</v>
+        <v>0.1094160852864142</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H19">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I19">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J19">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N19">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O19">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P19">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q19">
-        <v>3164.693414693515</v>
+        <v>758.9636546186676</v>
       </c>
       <c r="R19">
-        <v>28482.24073224163</v>
+        <v>6830.67289156801</v>
       </c>
       <c r="S19">
-        <v>0.1286266708046373</v>
+        <v>0.01037287049332717</v>
       </c>
       <c r="T19">
-        <v>0.1429605398143326</v>
+        <v>0.01173907008278739</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H20">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I20">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J20">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N20">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O20">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P20">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q20">
-        <v>15.60726398363775</v>
+        <v>2.235108842972999</v>
       </c>
       <c r="R20">
-        <v>62.429055934551</v>
+        <v>8.940435371891997</v>
       </c>
       <c r="S20">
-        <v>0.0006343459360908938</v>
+        <v>3.054756894557489E-05</v>
       </c>
       <c r="T20">
-        <v>0.0003133493470687396</v>
+        <v>1.536486947440098E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H21">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I21">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J21">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N21">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O21">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P21">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q21">
-        <v>6.9567274429915</v>
+        <v>9.1615325724645</v>
       </c>
       <c r="R21">
-        <v>41.740364657949</v>
+        <v>54.969195434787</v>
       </c>
       <c r="S21">
-        <v>0.000282751146298294</v>
+        <v>0.0001252120444981257</v>
       </c>
       <c r="T21">
-        <v>0.0002095068684955196</v>
+        <v>9.446905859010813E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H22">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I22">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J22">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N22">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O22">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P22">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q22">
-        <v>2334.744426934768</v>
+        <v>4395.283554726296</v>
       </c>
       <c r="R22">
-        <v>14008.46656160861</v>
+        <v>26371.70132835778</v>
       </c>
       <c r="S22">
-        <v>0.09489399555166188</v>
+        <v>0.06007100184202305</v>
       </c>
       <c r="T22">
-        <v>0.0703125136974074</v>
+        <v>0.04532192582052691</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H23">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I23">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J23">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N23">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O23">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P23">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q23">
-        <v>19.38528482533275</v>
+        <v>14.22824127735375</v>
       </c>
       <c r="R23">
-        <v>77.541139301331</v>
+        <v>56.91296510941499</v>
       </c>
       <c r="S23">
-        <v>0.0007879008557685788</v>
+        <v>0.0001944595149183475</v>
       </c>
       <c r="T23">
-        <v>0.000389201230217402</v>
+        <v>9.780958576766075E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H24">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I24">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J24">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N24">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O24">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P24">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q24">
-        <v>19.5289383940055</v>
+        <v>15521.10333917836</v>
       </c>
       <c r="R24">
-        <v>117.173630364033</v>
+        <v>93126.62003507017</v>
       </c>
       <c r="S24">
-        <v>0.0007937395509805037</v>
+        <v>0.2121292552958108</v>
       </c>
       <c r="T24">
-        <v>0.0005881280762396275</v>
+        <v>0.1600457138731245</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H25">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I25">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J25">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N25">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O25">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P25">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q25">
-        <v>4028.255693118959</v>
+        <v>1665.233401321695</v>
       </c>
       <c r="R25">
-        <v>24169.53415871375</v>
+        <v>9991.400407930169</v>
       </c>
       <c r="S25">
-        <v>0.1637255339016458</v>
+        <v>0.02275899551705329</v>
       </c>
       <c r="T25">
-        <v>0.1213138278997591</v>
+        <v>0.01717103885309292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H26">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I26">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J26">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N26">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O26">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P26">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q26">
-        <v>1.892838297684167</v>
+        <v>0.2608605421619999</v>
       </c>
       <c r="R26">
-        <v>11.357029786105</v>
+        <v>1.565163252972</v>
       </c>
       <c r="S26">
-        <v>7.693304111931179E-05</v>
+        <v>3.565220289797764E-06</v>
       </c>
       <c r="T26">
-        <v>5.700419163549575E-05</v>
+        <v>2.689861073617313E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H27">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I27">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J27">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N27">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O27">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P27">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q27">
-        <v>0.8437071445994444</v>
+        <v>1.069246520768556</v>
       </c>
       <c r="R27">
-        <v>7.593364301395</v>
+        <v>9.623218686916999</v>
       </c>
       <c r="S27">
-        <v>3.42918655690454E-05</v>
+        <v>1.461355312323289E-05</v>
       </c>
       <c r="T27">
-        <v>3.811327450461008E-05</v>
+        <v>1.65382884499064E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H28">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I28">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J28">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N28">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O28">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P28">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q28">
-        <v>283.1562067022045</v>
+        <v>512.9754887088845</v>
       </c>
       <c r="R28">
-        <v>2548.40586031984</v>
+        <v>4616.779398379961</v>
       </c>
       <c r="S28">
-        <v>0.0115086788554845</v>
+        <v>0.007010913208092895</v>
       </c>
       <c r="T28">
-        <v>0.01279118033171191</v>
+        <v>0.007934313028113737</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H29">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I29">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J29">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N29">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O29">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P29">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q29">
-        <v>2.351034080500833</v>
+        <v>1.6605843358775</v>
       </c>
       <c r="R29">
-        <v>14.106204483005</v>
+        <v>9.963506015264999</v>
       </c>
       <c r="S29">
-        <v>9.555607671789287E-05</v>
+        <v>2.269545603993319E-05</v>
       </c>
       <c r="T29">
-        <v>7.080308837285213E-05</v>
+        <v>1.712310005766071E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H30">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I30">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J30">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N30">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O30">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P30">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q30">
-        <v>2.368456287023889</v>
+        <v>1811.47483924093</v>
       </c>
       <c r="R30">
-        <v>21.316106583215</v>
+        <v>16303.27355316837</v>
       </c>
       <c r="S30">
-        <v>9.626418967844911E-05</v>
+        <v>0.02475769925874477</v>
       </c>
       <c r="T30">
-        <v>0.000106991656047155</v>
+        <v>0.02801850913630333</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H31">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I31">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J31">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N31">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O31">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P31">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q31">
-        <v>488.5440943905045</v>
+        <v>194.3501271809411</v>
       </c>
       <c r="R31">
-        <v>4396.89684951454</v>
+        <v>1749.15114462847</v>
       </c>
       <c r="S31">
-        <v>0.01985652073308428</v>
+        <v>0.002656212438291878</v>
       </c>
       <c r="T31">
-        <v>0.02206928706992449</v>
+        <v>0.003006059314819256</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H32">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I32">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J32">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N32">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O32">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P32">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q32">
-        <v>9.122905759866832</v>
+        <v>1.60637077905</v>
       </c>
       <c r="R32">
-        <v>54.73743455920099</v>
+        <v>9.6382246743</v>
       </c>
       <c r="S32">
-        <v>0.0003707938944441995</v>
+        <v>2.195451119951545E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002747428921130113</v>
+        <v>1.656407746664704E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H33">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I33">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J33">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N33">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O33">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P33">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q33">
-        <v>4.066412212033222</v>
+        <v>6.584385481713889</v>
       </c>
       <c r="R33">
-        <v>36.597709908299</v>
+        <v>59.259469335425</v>
       </c>
       <c r="S33">
-        <v>0.0001652763779659234</v>
+        <v>8.998978734268612E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001836944085138697</v>
+        <v>0.0001018422452136564</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H34">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I34">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J34">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N34">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O34">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P34">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q34">
-        <v>1364.726924759534</v>
+        <v>3158.886463247116</v>
       </c>
       <c r="R34">
-        <v>12282.54232283581</v>
+        <v>28429.97816922405</v>
       </c>
       <c r="S34">
-        <v>0.05546833701939177</v>
+        <v>0.04317297671236954</v>
       </c>
       <c r="T34">
-        <v>0.06164960465267431</v>
+        <v>0.04885924292943634</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H35">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I35">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J35">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2607,28 +2607,28 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N35">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O35">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P35">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q35">
-        <v>11.33127028383016</v>
+        <v>10.2258246156875</v>
       </c>
       <c r="R35">
-        <v>67.98762170298099</v>
+        <v>61.354947694125</v>
       </c>
       <c r="S35">
-        <v>0.000460551270410421</v>
+        <v>0.000139757884031084</v>
       </c>
       <c r="T35">
-        <v>0.0003412493838080779</v>
+        <v>0.0001054434961738816</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H36">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I36">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J36">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N36">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O36">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P36">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q36">
-        <v>11.41524002833144</v>
+        <v>11155.00345366075</v>
       </c>
       <c r="R36">
-        <v>102.737160254983</v>
+        <v>100395.0310829468</v>
       </c>
       <c r="S36">
-        <v>0.0004639641598338856</v>
+        <v>0.1524571110530676</v>
       </c>
       <c r="T36">
-        <v>0.000515667289912974</v>
+        <v>0.1725370727825603</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H37">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I37">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J37">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N37">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O37">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P37">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q37">
-        <v>2354.634169287994</v>
+        <v>1196.801795398528</v>
       </c>
       <c r="R37">
-        <v>21191.70752359195</v>
+        <v>10771.21615858675</v>
       </c>
       <c r="S37">
-        <v>0.09570239971813788</v>
+        <v>0.01635687025894246</v>
       </c>
       <c r="T37">
-        <v>0.1063672614679752</v>
+        <v>0.01851121600605239</v>
       </c>
     </row>
   </sheetData>
